--- a/Data/Output/Route Tracker-Output.xlsx
+++ b/Data/Output/Route Tracker-Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rencita.Monteiro\Documents\UiPath\Rencita_capstone_5\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D2F7A9-4AE6-4879-88E6-D49C2A81C283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EB9358-649D-4BCA-9299-4B29DC6A4BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{7E52CB5C-B483-4043-9A63-8A600E7364F7}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Output - Uber" sheetId="3" r:id="rId2"/>
     <sheet name="UberCostDetails" sheetId="4" r:id="rId3"/>
     <sheet name="OlaCostDeatils" sheetId="11" r:id="rId4"/>
-    <sheet name="Final Results" sheetId="12" r:id="rId5"/>
+    <sheet name="Travel Cost Details" sheetId="12" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Output - Ola'!$A$1:$G$13</definedName>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="118">
   <si>
     <t>XYZ</t>
   </si>
@@ -102,6 +102,297 @@
   </si>
   <si>
     <t>UberXL</t>
+  </si>
+  <si>
+    <t>KIAL</t>
+  </si>
+  <si>
+    <t>Novigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Uber</t>
+  </si>
+  <si>
+    <t>₹775.97</t>
+  </si>
+  <si>
+    <t>₹1,090.25</t>
+  </si>
+  <si>
+    <t>₹2,169.35</t>
+  </si>
+  <si>
+    <t>ITPL</t>
+  </si>
+  <si>
+    <t>₹538.49</t>
+  </si>
+  <si>
+    <t>₹716.49</t>
+  </si>
+  <si>
+    <t>₹1,451.91</t>
+  </si>
+  <si>
+    <t>ECITY</t>
+  </si>
+  <si>
+    <t>₹836.05</t>
+  </si>
+  <si>
+    <t>₹1,147.61</t>
+  </si>
+  <si>
+    <t>₹2,071.87</t>
+  </si>
+  <si>
+    <t>Manyata</t>
+  </si>
+  <si>
+    <t>₹570.77</t>
+  </si>
+  <si>
+    <t>₹744.78</t>
+  </si>
+  <si>
+    <t>₹1,477.83</t>
+  </si>
+  <si>
+    <t>Bannarghatta</t>
+  </si>
+  <si>
+    <t>₹757.74</t>
+  </si>
+  <si>
+    <t>₹1,022.53</t>
+  </si>
+  <si>
+    <t>₹2,033.72</t>
+  </si>
+  <si>
+    <t>Majestic</t>
+  </si>
+  <si>
+    <t>₹570.09</t>
+  </si>
+  <si>
+    <t>₹778.47</t>
+  </si>
+  <si>
+    <t>₹1,541.04</t>
+  </si>
+  <si>
+    <t>₹1,374.90</t>
+  </si>
+  <si>
+    <t>₹1,752.42</t>
+  </si>
+  <si>
+    <t>₹1,107.63</t>
+  </si>
+  <si>
+    <t>₹1,464.83</t>
+  </si>
+  <si>
+    <t>₹1,691.00</t>
+  </si>
+  <si>
+    <t>₹2,103.65</t>
+  </si>
+  <si>
+    <t>₹971.99</t>
+  </si>
+  <si>
+    <t>₹1,293.60</t>
+  </si>
+  <si>
+    <t>₹1,432.18</t>
+  </si>
+  <si>
+    <t>₹1,817.66</t>
+  </si>
+  <si>
+    <t>₹1,089.85</t>
+  </si>
+  <si>
+    <t>₹1,427.82</t>
+  </si>
+  <si>
+    <t>₹888.40</t>
+  </si>
+  <si>
+    <t>₹1,299.15</t>
+  </si>
+  <si>
+    <t>₹1,976.55</t>
+  </si>
+  <si>
+    <t>₹687.95</t>
+  </si>
+  <si>
+    <t>₹1,057.38</t>
+  </si>
+  <si>
+    <t>₹1,686.79</t>
+  </si>
+  <si>
+    <t>₹947.79</t>
+  </si>
+  <si>
+    <t>₹1,447.51</t>
+  </si>
+  <si>
+    <t>₹2,031.87</t>
+  </si>
+  <si>
+    <t>₹634.34</t>
+  </si>
+  <si>
+    <t>₹913.44</t>
+  </si>
+  <si>
+    <t>₹1,437.83</t>
+  </si>
+  <si>
+    <t>₹915.36</t>
+  </si>
+  <si>
+    <t>₹1,340.07</t>
+  </si>
+  <si>
+    <t>₹671.29</t>
+  </si>
+  <si>
+    <t>₹1,005.50</t>
+  </si>
+  <si>
+    <t>₹1,516.17</t>
+  </si>
+  <si>
+    <t>₹1,494.88</t>
+  </si>
+  <si>
+    <t>₹1,748.14</t>
+  </si>
+  <si>
+    <t>₹1,217.51</t>
+  </si>
+  <si>
+    <t>₹2,740.48</t>
+  </si>
+  <si>
+    <t>₹3,032.79</t>
+  </si>
+  <si>
+    <t>₹1,174.71</t>
+  </si>
+  <si>
+    <t>₹1,557.73</t>
+  </si>
+  <si>
+    <t>₹1,813.37</t>
+  </si>
+  <si>
+    <t>₹1,182.17</t>
+  </si>
+  <si>
+    <t>₹1,423.54</t>
+  </si>
+  <si>
+    <t>OLA</t>
+  </si>
+  <si>
+    <t>₹799</t>
+  </si>
+  <si>
+    <t>₹899</t>
+  </si>
+  <si>
+    <t>₹1661</t>
+  </si>
+  <si>
+    <t>₹1712</t>
+  </si>
+  <si>
+    <t>₹962</t>
+  </si>
+  <si>
+    <t>₹1062</t>
+  </si>
+  <si>
+    <t>₹2065</t>
+  </si>
+  <si>
+    <t>₹599</t>
+  </si>
+  <si>
+    <t>₹699</t>
+  </si>
+  <si>
+    <t>₹1327</t>
+  </si>
+  <si>
+    <t>₹1491</t>
+  </si>
+  <si>
+    <t>₹956</t>
+  </si>
+  <si>
+    <t>₹1001</t>
+  </si>
+  <si>
+    <t>₹1704</t>
+  </si>
+  <si>
+    <t>₹1029</t>
+  </si>
+  <si>
+    <t>₹1074</t>
+  </si>
+  <si>
+    <t>₹1828</t>
+  </si>
+  <si>
+    <t>₹1386</t>
+  </si>
+  <si>
+    <t>₹1837</t>
+  </si>
+  <si>
+    <t>₹770</t>
+  </si>
+  <si>
+    <t>₹814</t>
+  </si>
+  <si>
+    <t>₹1315</t>
+  </si>
+  <si>
+    <t>₹934</t>
+  </si>
+  <si>
+    <t>₹986</t>
+  </si>
+  <si>
+    <t>₹1475</t>
+  </si>
+  <si>
+    <t>₹1962</t>
+  </si>
+  <si>
+    <t>₹2087</t>
+  </si>
+  <si>
+    <t>₹2441</t>
+  </si>
+  <si>
+    <t>₹1733</t>
+  </si>
+  <si>
+    <t>Aggregator_1</t>
   </si>
   <si>
     <t>Row Labels</t>
@@ -190,7 +481,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Rencita Monteiro" refreshedDate="45504.780982638891" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="12" xr:uid="{25028EEB-97D6-48F3-BFFC-24DDA566B75A}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Rencita Monteiro" refreshedDate="45505.686463888887" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="12" xr:uid="{25028EEB-97D6-48F3-BFFC-24DDA566B75A}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G13" sheet="Output - Ola"/>
   </cacheSource>
@@ -347,7 +638,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" missingCaption="" updatedVersion="8" useAutoFormatting="1" itemPrintTitles="1" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" missingCaption="" updatedVersion="8" useAutoFormatting="1" itemPrintTitles="1" indent="0" multipleFieldFilters="0">
   <location ref="J2:J10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField name="XYZ"/>
@@ -710,7 +1001,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,7 +1063,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="J2" s="3" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -900,7 +1191,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="J10" s="4" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -953,7 +1244,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1 A1:G13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,7 +1446,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="A2:G13"/>
+      <selection activeCell="A14" sqref="A14:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,112 +1475,280 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1301,7 +1760,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="A2:G13"/>
+      <selection activeCell="G25" sqref="A14:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,112 +1789,280 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -1444,10 +2071,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="A2:J13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,28 +2087,828 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" t="s">
+        <v>81</v>
+      </c>
+      <c r="J24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" t="s">
+        <v>83</v>
+      </c>
+      <c r="J25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26" t="s">
+        <v>71</v>
+      </c>
+      <c r="J26" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1490,15 +2917,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="b4edf56a-5a91-48ff-919c-183254b0e511">
@@ -1511,6 +2929,15 @@
     <Identityname xmlns="b4edf56a-5a91-48ff-919c-183254b0e511" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1801,20 +3228,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A558932-1697-412E-9163-F3B79627D920}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16AA2011-625B-4FD8-80D4-3D79859E0C98}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="b4edf56a-5a91-48ff-919c-183254b0e511"/>
     <ds:schemaRef ds:uri="6a1fcef9-8c1c-4c75-859d-d52abd477b99"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A558932-1697-412E-9163-F3B79627D920}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
